--- a/export/sanpham.xlsx
+++ b/export/sanpham.xlsx
@@ -1,43 +1,470 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\DoAn_QuanLyBanDongHo\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B47180-CBF5-4818-8EE3-C20582FEC736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="135">
+  <si>
+    <t>Mã SP</t>
+  </si>
+  <si>
+    <t>Tên SP</t>
+  </si>
+  <si>
+    <t>Loại SP</t>
+  </si>
+  <si>
+    <t>Nhà Cung Cấp</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Ảnh</t>
+  </si>
+  <si>
+    <t>Mô Tả</t>
+  </si>
+  <si>
+    <t>1 - Đồng hồ Nam</t>
+  </si>
+  <si>
+    <t>CASIO</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>casio-ltp-v006d-7b2udf-nu</t>
+  </si>
+  <si>
+    <t>2 - Đồng hồ nữ</t>
+  </si>
+  <si>
+    <t>2,999,000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>casio-ltp-v006d-7b2udf-nu.jpg</t>
+  </si>
+  <si>
+    <t>Mẫu phiên bản mặt kính chất liệu kính Sapphire với kích thước nam tính 40mm, kết hợp cùng mẫu dây đeo kim loại dây vàng demi phong cách thời trang sang trọng.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>casio-ltp-v007l-1budf-nu</t>
+  </si>
+  <si>
+    <t>casio-ltp-v007l-1budf-nu.jpg</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>casio-ltp-vt01gl-4budf-nu</t>
+  </si>
+  <si>
+    <t>999,900</t>
+  </si>
+  <si>
+    <t>casio-ltp-vt01gl-4budf-nu.jpg</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>casio-ltp-vt01l-5budf-nu</t>
+  </si>
+  <si>
+    <t>casio-ltp-vt01l-5budf-nu.jpg</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>casio-mtp-e715l-1avdf-nam</t>
+  </si>
+  <si>
+    <t>1,900,000</t>
+  </si>
+  <si>
+    <t>casio-mtp-e715l-1avdf-nam.jpg</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>casio-mtp-m300d-7avdf-nam</t>
+  </si>
+  <si>
+    <t>casio-mtp-m300d-7avdf-nam.jpg</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>casio-mtp-m300l-7avdf-nam</t>
+  </si>
+  <si>
+    <t>casio-mtp-m300l-7avdf-nam.jpg</t>
+  </si>
+  <si>
+    <t>casio-mtp-m305l-7avdf-nam</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>casio-mtp-m305l-7avdf-nam.jpg</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>casio-mtp-vd03d-2audf-nam</t>
+  </si>
+  <si>
+    <t>casio-mtp-vd03d-2audf-nam.jpg</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>citizen-em0993-82x-nu</t>
+  </si>
+  <si>
+    <t>CITIZEN</t>
+  </si>
+  <si>
+    <t>citizen-em0993-82x-nu.jpg</t>
+  </si>
+  <si>
+    <t>Mẫu phiên bản mạ vàng với mẫu kim chỉ nổi bật trên mặt số size 41.7mm đi kèm thiết kế 2 núm vặn điều chỉnh, vỏ máy kim loại mạ bạc kiểu dáng dày dặn của bô máy cơ.</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>citizen-eq0614-52e-nu</t>
+  </si>
+  <si>
+    <t>citizen-eq0614-52e-nu.jpg</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>citizen-ew2449-83a-nu</t>
+  </si>
+  <si>
+    <t>citizen-ew2449-83a-nu.jpg</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>citizen-ew2590-85d-nu.jpg</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>citizen-ew2590-85n-nu</t>
+  </si>
+  <si>
+    <t>citizen-ew2590-85n-nu.jpg</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>citizen-ew2591-82d-nu</t>
+  </si>
+  <si>
+    <t>citizen-ew2591-82d-nu.jpg</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>citizen-nh8390-11x-nam</t>
+  </si>
+  <si>
+    <t>citizen-nh8390-11x-nam.jpg</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>citizen-nj0155-87e-nam</t>
+  </si>
+  <si>
+    <t>citizen-nj0155-87e-nam.jpg</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>citizen-nj0150-81l-nam</t>
+  </si>
+  <si>
+    <t>citizen-nj0150-81l-nam.jpg</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>citizen-nh8394-70h-nam</t>
+  </si>
+  <si>
+    <t>citizen-nh8394-70h-nam.jpg</t>
+  </si>
+  <si>
+    <t>tommy-1710420-nam</t>
+  </si>
+  <si>
+    <t>TOMMY</t>
+  </si>
+  <si>
+    <t>tommy-1710420-nam.jpg</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>tommy-1782110-nu</t>
+  </si>
+  <si>
+    <t>tommy-1782110-nu.jpg</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>tommy-1782336-nu</t>
+  </si>
+  <si>
+    <t>tommy-1782336-nu.jpg</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>tommy-1782337-nu</t>
+  </si>
+  <si>
+    <t>tommy-1782337-nu.jpg</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>tommy-1791807-nam</t>
+  </si>
+  <si>
+    <t>tommy-1791807-nam.jpg</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>tommy-hilfiger-1782511-nu</t>
+  </si>
+  <si>
+    <t>tommy-hilfiger-1782511-nu.jpg</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>tommy-hilfiger-1792009-nam</t>
+  </si>
+  <si>
+    <t>tommy-hilfiger-1792009-nam.jpg</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>tommy-hilfiger-1792015-nam</t>
+  </si>
+  <si>
+    <t>tommy-hilfiger-1792015-nam.jpg</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Mẫu đôi thiết kế mỏng thời trang với phần vỏ máy pin chỉ 8mm, mặt số trắng kiểu dáng đơn giản 3 kim 1 lịch.</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>g-shock-ga-2100-1a3dr-nam</t>
+  </si>
+  <si>
+    <t>G-SHOCK</t>
+  </si>
+  <si>
+    <t>g-shock-ga-2100-1a3dr-nam.jpg</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>g-shock-ga-2100-1a4dr-nam</t>
+  </si>
+  <si>
+    <t>g-shock-ga-2100-1a4dr-nam.jpg</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>g-shock-gm-5600-1dr-nam</t>
+  </si>
+  <si>
+    <t>g-shock-gm-5600-1dr-nam.jpg</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>g-shock-gm-5600g-9dr-nam</t>
+  </si>
+  <si>
+    <t>g-shock-gm-5600g-9dr-nam.jpg</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>g-shock-gm-5600sg-9dr-nam</t>
+  </si>
+  <si>
+    <t>g-shock-gm-5600sg-9dr-nam.jpg</t>
+  </si>
+  <si>
+    <t>Mẫu Casio đôi thiết kế mỏng thời trang với phần vỏ máy pin chỉ 8mm, mặt số trắng kiểu dáng đơn giản 3 kim 1 lịch.</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>g-shock-gma-s2100ba-4adr-nu</t>
+  </si>
+  <si>
+    <t>g-shock-gma-s2100ba-4adr-nu.jpg</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>g-shock-gm-s2100-3adr-nu</t>
+  </si>
+  <si>
+    <t>g-shock-gm-s2100-3adr-nu.jpg</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>g-shock-gm-s2100pg-1a4dr-nu</t>
+  </si>
+  <si>
+    <t>g-shock-gm-s2100pg-1a4dr-nu.jpg</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>g-shock-mtg-b1000tj-1adr-nam</t>
+  </si>
+  <si>
+    <t>g-shock-mtg-b1000tj-1adr-nam.jpg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor indexed="17"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +472,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,7 +531,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +543,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +590,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +642,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +810,1170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="217.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>